--- a/r4-core-Remove_FixedCodeSystem_Ext-Religion/StructureDefinition-at-core-ext-gender-administrativeGenderAddition.xlsx
+++ b/r4-core-Remove_FixedCodeSystem_Ext-Religion/StructureDefinition-at-core-ext-gender-administrativeGenderAddition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-27T15:41:46+00:00</t>
+    <t>2024-04-27T15:50:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
